--- a/Code/Results/Cases/Case_3_154/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_154/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9964282819077923</v>
+        <v>1.028818991024235</v>
       </c>
       <c r="D2">
-        <v>1.020046845808597</v>
+        <v>1.038854720684631</v>
       </c>
       <c r="E2">
-        <v>1.003315982656177</v>
+        <v>1.028728132802001</v>
       </c>
       <c r="F2">
-        <v>1.026261648696336</v>
+        <v>1.049449016342874</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043968513106968</v>
+        <v>1.034775075012246</v>
       </c>
       <c r="J2">
-        <v>1.01871634980209</v>
+        <v>1.03396919685549</v>
       </c>
       <c r="K2">
-        <v>1.031233786011449</v>
+        <v>1.041641567747759</v>
       </c>
       <c r="L2">
-        <v>1.014729313077997</v>
+        <v>1.03154410633323</v>
       </c>
       <c r="M2">
-        <v>1.037366850430533</v>
+        <v>1.052206044341448</v>
       </c>
       <c r="N2">
-        <v>1.020163043867204</v>
+        <v>1.035437551712949</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.000995131302453</v>
+        <v>1.029791359469192</v>
       </c>
       <c r="D3">
-        <v>1.023497093093934</v>
+        <v>1.039609208576095</v>
       </c>
       <c r="E3">
-        <v>1.006964365392453</v>
+        <v>1.02955478189302</v>
       </c>
       <c r="F3">
-        <v>1.030314739777697</v>
+        <v>1.050355959621095</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045056831495695</v>
+        <v>1.034944912287693</v>
       </c>
       <c r="J3">
-        <v>1.021458704747656</v>
+        <v>1.034582218340355</v>
       </c>
       <c r="K3">
-        <v>1.033837898817867</v>
+        <v>1.042206301354812</v>
       </c>
       <c r="L3">
-        <v>1.017508904703545</v>
+        <v>1.032178701544021</v>
       </c>
       <c r="M3">
-        <v>1.040573891856235</v>
+        <v>1.052924991341979</v>
       </c>
       <c r="N3">
-        <v>1.022909293271349</v>
+        <v>1.036051443758637</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.00389099749872</v>
+        <v>1.03042107742268</v>
       </c>
       <c r="D4">
-        <v>1.025687135832287</v>
+        <v>1.040097677983197</v>
       </c>
       <c r="E4">
-        <v>1.009284030614978</v>
+        <v>1.030090507587273</v>
       </c>
       <c r="F4">
-        <v>1.032888987641707</v>
+        <v>1.050943396255568</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045736651295218</v>
+        <v>1.035053590245185</v>
       </c>
       <c r="J4">
-        <v>1.023195692158855</v>
+        <v>1.034978823111656</v>
       </c>
       <c r="K4">
-        <v>1.035485117811192</v>
+        <v>1.042571324050515</v>
       </c>
       <c r="L4">
-        <v>1.01927168220301</v>
+        <v>1.03258950922394</v>
       </c>
       <c r="M4">
-        <v>1.042606036974271</v>
+        <v>1.053390148889461</v>
       </c>
       <c r="N4">
-        <v>1.024648747403907</v>
+        <v>1.036448611754205</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.005094756589265</v>
+        <v>1.030685937019816</v>
       </c>
       <c r="D5">
-        <v>1.026597969137384</v>
+        <v>1.040303092668588</v>
       </c>
       <c r="E5">
-        <v>1.010249715096212</v>
+        <v>1.030315923720591</v>
       </c>
       <c r="F5">
-        <v>1.033959995735448</v>
+        <v>1.051190492928368</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046016728168183</v>
+        <v>1.035098986304878</v>
       </c>
       <c r="J5">
-        <v>1.023917220384473</v>
+        <v>1.035145540201076</v>
       </c>
       <c r="K5">
-        <v>1.036168811498841</v>
+        <v>1.04272468334303</v>
       </c>
       <c r="L5">
-        <v>1.020004451345564</v>
+        <v>1.032762255385923</v>
       </c>
       <c r="M5">
-        <v>1.043450356439779</v>
+        <v>1.053585688104042</v>
       </c>
       <c r="N5">
-        <v>1.025371300282366</v>
+        <v>1.036615565601015</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.005296086112548</v>
+        <v>1.030730415485802</v>
       </c>
       <c r="D6">
-        <v>1.026750332662151</v>
+        <v>1.040337586302773</v>
       </c>
       <c r="E6">
-        <v>1.010411309897902</v>
+        <v>1.030353783599172</v>
       </c>
       <c r="F6">
-        <v>1.034139176173355</v>
+        <v>1.051231989616284</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046063422321221</v>
+        <v>1.035106591355522</v>
       </c>
       <c r="J6">
-        <v>1.02403786568219</v>
+        <v>1.035173531794912</v>
       </c>
       <c r="K6">
-        <v>1.036283098022041</v>
+        <v>1.042750427368879</v>
       </c>
       <c r="L6">
-        <v>1.020127007228276</v>
+        <v>1.032791262696676</v>
       </c>
       <c r="M6">
-        <v>1.043591543945611</v>
+        <v>1.053618519199409</v>
       </c>
       <c r="N6">
-        <v>1.025492116910244</v>
+        <v>1.036643596946124</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.003907135219324</v>
+        <v>1.030424615994867</v>
       </c>
       <c r="D7">
-        <v>1.025699344772152</v>
+        <v>1.040100422501798</v>
       </c>
       <c r="E7">
-        <v>1.009296971048321</v>
+        <v>1.03009351883601</v>
       </c>
       <c r="F7">
-        <v>1.032903342050693</v>
+        <v>1.050946697431721</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045740416013181</v>
+        <v>1.035054197978187</v>
       </c>
       <c r="J7">
-        <v>1.023205367087944</v>
+        <v>1.034981050855848</v>
       </c>
       <c r="K7">
-        <v>1.035494287595891</v>
+        <v>1.042573373624379</v>
       </c>
       <c r="L7">
-        <v>1.019281505775999</v>
+        <v>1.032591817300414</v>
       </c>
       <c r="M7">
-        <v>1.042617357687984</v>
+        <v>1.053392761746715</v>
       </c>
       <c r="N7">
-        <v>1.024658436072505</v>
+        <v>1.036450842662049</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9979842394825028</v>
+        <v>1.029147497129655</v>
       </c>
       <c r="D8">
-        <v>1.021221866023873</v>
+        <v>1.039109647649846</v>
       </c>
       <c r="E8">
-        <v>1.004557682268347</v>
+        <v>1.029007330424195</v>
       </c>
       <c r="F8">
-        <v>1.027641657191943</v>
+        <v>1.049755400357005</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044341441265062</v>
+        <v>1.034832724212288</v>
       </c>
       <c r="J8">
-        <v>1.019651076690773</v>
+        <v>1.034176382436153</v>
       </c>
       <c r="K8">
-        <v>1.032121846405467</v>
+        <v>1.041832503839972</v>
       </c>
       <c r="L8">
-        <v>1.015676268762615</v>
+        <v>1.031758532444863</v>
       </c>
       <c r="M8">
-        <v>1.038459782671135</v>
+        <v>1.052449025300794</v>
       </c>
       <c r="N8">
-        <v>1.021099098175286</v>
+        <v>1.035645031520902</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9870698711050735</v>
+        <v>1.026901151196095</v>
       </c>
       <c r="D9">
-        <v>1.012991627573235</v>
+        <v>1.037365867772706</v>
       </c>
       <c r="E9">
-        <v>0.9958760452073379</v>
+        <v>1.02709972925681</v>
       </c>
       <c r="F9">
-        <v>1.017981642123179</v>
+        <v>1.047660715927088</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041683679561598</v>
+        <v>1.03443315341811</v>
       </c>
       <c r="J9">
-        <v>1.013087635858336</v>
+        <v>1.032758026522456</v>
       </c>
       <c r="K9">
-        <v>1.02587738344312</v>
+        <v>1.040523996342438</v>
       </c>
       <c r="L9">
-        <v>1.009036386939984</v>
+        <v>1.03029161686094</v>
       </c>
       <c r="M9">
-        <v>1.030789564097282</v>
+        <v>1.050785718339987</v>
       </c>
       <c r="N9">
-        <v>1.014526336504031</v>
+        <v>1.034224661379119</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9794366496321345</v>
+        <v>1.025406393149531</v>
       </c>
       <c r="D10">
-        <v>1.007253916933067</v>
+        <v>1.036204834865305</v>
       </c>
       <c r="E10">
-        <v>0.9898427578748165</v>
+        <v>1.025832374822155</v>
       </c>
       <c r="F10">
-        <v>1.011254232688048</v>
+        <v>1.046267391426837</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039773783448979</v>
+        <v>1.034160547745216</v>
       </c>
       <c r="J10">
-        <v>1.008490570741768</v>
+        <v>1.031812222780532</v>
       </c>
       <c r="K10">
-        <v>1.021493423280913</v>
+        <v>1.039649701748472</v>
       </c>
       <c r="L10">
-        <v>1.004397858575097</v>
+        <v>1.02931469884975</v>
       </c>
       <c r="M10">
-        <v>1.025423218696768</v>
+        <v>1.049676702499338</v>
       </c>
       <c r="N10">
-        <v>1.009922743027706</v>
+        <v>1.033277514487397</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9760379924144147</v>
+        <v>1.024759821756965</v>
       </c>
       <c r="D11">
-        <v>1.004704600243878</v>
+        <v>1.035702464247003</v>
       </c>
       <c r="E11">
-        <v>0.9871664021980765</v>
+        <v>1.025284650880359</v>
       </c>
       <c r="F11">
-        <v>1.008266669273211</v>
+        <v>1.045664826770767</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038911957023401</v>
+        <v>1.034041036481673</v>
       </c>
       <c r="J11">
-        <v>1.006442748673052</v>
+        <v>1.031402635196652</v>
       </c>
       <c r="K11">
-        <v>1.01953833673555</v>
+        <v>1.039270671167482</v>
       </c>
       <c r="L11">
-        <v>1.00233446867583</v>
+        <v>1.02889193792924</v>
       </c>
       <c r="M11">
-        <v>1.023034354208607</v>
+        <v>1.049196467145894</v>
       </c>
       <c r="N11">
-        <v>1.007872012816764</v>
+        <v>1.032867345242167</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9747607406522181</v>
+        <v>1.024519757549643</v>
       </c>
       <c r="D12">
-        <v>1.003747439607856</v>
+        <v>1.035515917485351</v>
       </c>
       <c r="E12">
-        <v>0.9861621664559334</v>
+        <v>1.025081360649864</v>
       </c>
       <c r="F12">
-        <v>1.007145172096499</v>
+        <v>1.045441122087246</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038586412575985</v>
+        <v>1.033996424140563</v>
       </c>
       <c r="J12">
-        <v>1.005673059224087</v>
+        <v>1.031250489736758</v>
       </c>
       <c r="K12">
-        <v>1.018803195040655</v>
+        <v>1.039129814920136</v>
       </c>
       <c r="L12">
-        <v>1.001559367746313</v>
+        <v>1.02873494435842</v>
       </c>
       <c r="M12">
-        <v>1.022136750325384</v>
+        <v>1.049018083897305</v>
       </c>
       <c r="N12">
-        <v>1.007101230320497</v>
+        <v>1.032714983718269</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9750354005303586</v>
+        <v>1.024571247545881</v>
       </c>
       <c r="D13">
-        <v>1.003953224980308</v>
+        <v>1.035555929841169</v>
       </c>
       <c r="E13">
-        <v>0.9863780449910918</v>
+        <v>1.025124959887058</v>
       </c>
       <c r="F13">
-        <v>1.007386280046102</v>
+        <v>1.045489102290649</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038656491614759</v>
+        <v>1.03400600361094</v>
       </c>
       <c r="J13">
-        <v>1.005838576476343</v>
+        <v>1.031283125729821</v>
       </c>
       <c r="K13">
-        <v>1.01896129653053</v>
+        <v>1.039160032098133</v>
       </c>
       <c r="L13">
-        <v>1.001726028770838</v>
+        <v>1.028768618247731</v>
       </c>
       <c r="M13">
-        <v>1.022329762314446</v>
+        <v>1.049056347801898</v>
       </c>
       <c r="N13">
-        <v>1.007266982626237</v>
+        <v>1.032747666058184</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9759327219494696</v>
+        <v>1.024739975906072</v>
       </c>
       <c r="D14">
-        <v>1.004625692691871</v>
+        <v>1.035687043082354</v>
       </c>
       <c r="E14">
-        <v>0.9870836012799967</v>
+        <v>1.025267843599227</v>
       </c>
       <c r="F14">
-        <v>1.008174209846057</v>
+        <v>1.045646332924896</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038885159212118</v>
+        <v>1.034037353307645</v>
       </c>
       <c r="J14">
-        <v>1.006379312874903</v>
+        <v>1.031390058930906</v>
       </c>
       <c r="K14">
-        <v>1.019477754394184</v>
+        <v>1.039259029315655</v>
       </c>
       <c r="L14">
-        <v>1.002270577915476</v>
+        <v>1.028878959997612</v>
       </c>
       <c r="M14">
-        <v>1.022960370437779</v>
+        <v>1.04918172197421</v>
       </c>
       <c r="N14">
-        <v>1.007808486932506</v>
+        <v>1.032854751116681</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9764835999531355</v>
+        <v>1.024843948449007</v>
       </c>
       <c r="D15">
-        <v>1.005038651400362</v>
+        <v>1.03576783374481</v>
       </c>
       <c r="E15">
-        <v>0.9875169609834914</v>
+        <v>1.025355900053663</v>
       </c>
       <c r="F15">
-        <v>1.00865809993603</v>
+        <v>1.045743223142398</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039025324228886</v>
+        <v>1.034056639682076</v>
       </c>
       <c r="J15">
-        <v>1.006711267413204</v>
+        <v>1.031455943183939</v>
       </c>
       <c r="K15">
-        <v>1.019794764614496</v>
+        <v>1.039320015865211</v>
       </c>
       <c r="L15">
-        <v>1.002604931184681</v>
+        <v>1.028946950342354</v>
       </c>
       <c r="M15">
-        <v>1.023347532783597</v>
+        <v>1.049258968849424</v>
       </c>
       <c r="N15">
-        <v>1.008140912884327</v>
+        <v>1.03292072893291</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9796601717307251</v>
+        <v>1.02544931811455</v>
       </c>
       <c r="D16">
-        <v>1.007421699460701</v>
+        <v>1.036238183336903</v>
       </c>
       <c r="E16">
-        <v>0.9900189890549467</v>
+        <v>1.025868747661474</v>
       </c>
       <c r="F16">
-        <v>1.011450887877451</v>
+        <v>1.046307397662547</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039830230212354</v>
+        <v>1.034168448359797</v>
       </c>
       <c r="J16">
-        <v>1.008625235116097</v>
+        <v>1.03183940481528</v>
       </c>
       <c r="K16">
-        <v>1.021621945512242</v>
+        <v>1.039674847252094</v>
       </c>
       <c r="L16">
-        <v>1.004533607458336</v>
+        <v>1.029342761469151</v>
       </c>
       <c r="M16">
-        <v>1.025580346017385</v>
+        <v>1.049708573729156</v>
       </c>
       <c r="N16">
-        <v>1.010057598640894</v>
+        <v>1.033304735123752</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9816271899860636</v>
+        <v>1.025829230057925</v>
       </c>
       <c r="D17">
-        <v>1.008898825991524</v>
+        <v>1.036533319675242</v>
       </c>
       <c r="E17">
-        <v>0.9915709821309797</v>
+        <v>1.026190725113365</v>
       </c>
       <c r="F17">
-        <v>1.013182371298428</v>
+        <v>1.046661492281769</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040325670958988</v>
+        <v>1.034238189454726</v>
       </c>
       <c r="J17">
-        <v>1.009810188486577</v>
+        <v>1.032079927839047</v>
       </c>
       <c r="K17">
-        <v>1.022752605091306</v>
+        <v>1.039897302416516</v>
       </c>
       <c r="L17">
-        <v>1.005728434499461</v>
+        <v>1.029591111205075</v>
       </c>
       <c r="M17">
-        <v>1.026963147352171</v>
+        <v>1.049990593349363</v>
       </c>
       <c r="N17">
-        <v>1.011244234781076</v>
+        <v>1.0335455997178</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9827655618050879</v>
+        <v>1.026050890737955</v>
       </c>
       <c r="D18">
-        <v>1.009754186443785</v>
+        <v>1.036705502768285</v>
       </c>
       <c r="E18">
-        <v>0.9924701045141111</v>
+        <v>1.02637863023297</v>
       </c>
       <c r="F18">
-        <v>1.014185164574844</v>
+        <v>1.046868102344908</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040611306275427</v>
+        <v>1.034278726271874</v>
       </c>
       <c r="J18">
-        <v>1.010495857596125</v>
+        <v>1.032220216128957</v>
       </c>
       <c r="K18">
-        <v>1.02340664756953</v>
+        <v>1.040027012759039</v>
       </c>
       <c r="L18">
-        <v>1.006420092059041</v>
+        <v>1.029735993561158</v>
       </c>
       <c r="M18">
-        <v>1.02776345487672</v>
+        <v>1.050155088210853</v>
       </c>
       <c r="N18">
-        <v>1.011930877619406</v>
+        <v>1.033686087233174</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9831522214488286</v>
+        <v>1.02612648221487</v>
       </c>
       <c r="D19">
-        <v>1.010044801102206</v>
+        <v>1.036764218659958</v>
       </c>
       <c r="E19">
-        <v>0.9927756575887214</v>
+        <v>1.026442718136581</v>
       </c>
       <c r="F19">
-        <v>1.014525895177024</v>
+        <v>1.046938563320262</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040708138436496</v>
+        <v>1.034292524181013</v>
       </c>
       <c r="J19">
-        <v>1.010728733837811</v>
+        <v>1.03226804998345</v>
       </c>
       <c r="K19">
-        <v>1.023628746126218</v>
+        <v>1.040071233142244</v>
       </c>
       <c r="L19">
-        <v>1.006655048736378</v>
+        <v>1.029785398769178</v>
       </c>
       <c r="M19">
-        <v>1.028035291725443</v>
+        <v>1.050211176262873</v>
       </c>
       <c r="N19">
-        <v>1.012164084572067</v>
+        <v>1.033733989017227</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9814170795966773</v>
+        <v>1.025788462427979</v>
       </c>
       <c r="D20">
-        <v>1.008740991335201</v>
+        <v>1.036501650703259</v>
       </c>
       <c r="E20">
-        <v>0.9914051055340029</v>
+        <v>1.02615616951168</v>
       </c>
       <c r="F20">
-        <v>1.01299734333646</v>
+        <v>1.046623493754479</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040272862379738</v>
+        <v>1.034230721577703</v>
       </c>
       <c r="J20">
-        <v>1.009683625531508</v>
+        <v>1.032054122476872</v>
       </c>
       <c r="K20">
-        <v>1.022631862772784</v>
+        <v>1.039873439625763</v>
       </c>
       <c r="L20">
-        <v>1.005600788387228</v>
+        <v>1.029564463123264</v>
       </c>
       <c r="M20">
-        <v>1.026815436405412</v>
+        <v>1.049960335554041</v>
       </c>
       <c r="N20">
-        <v>1.011117492092094</v>
+        <v>1.033519757709052</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9756688995329027</v>
+        <v>1.024690286810022</v>
       </c>
       <c r="D21">
-        <v>1.004427954218657</v>
+        <v>1.035648431942745</v>
       </c>
       <c r="E21">
-        <v>0.9868761161790729</v>
+        <v>1.025225763512822</v>
       </c>
       <c r="F21">
-        <v>1.00794251430665</v>
+        <v>1.04560002924581</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038817973627069</v>
+        <v>1.034028127687236</v>
       </c>
       <c r="J21">
-        <v>1.006220332590669</v>
+        <v>1.031358569937982</v>
       </c>
       <c r="K21">
-        <v>1.019325920452446</v>
+        <v>1.039229878955569</v>
       </c>
       <c r="L21">
-        <v>1.002110464521037</v>
+        <v>1.028846466027712</v>
       </c>
       <c r="M21">
-        <v>1.02277495965214</v>
+        <v>1.049144802463674</v>
       </c>
       <c r="N21">
-        <v>1.007649280878034</v>
+        <v>1.032823217405776</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9719684949486667</v>
+        <v>1.024000406070202</v>
       </c>
       <c r="D22">
-        <v>1.00165671762522</v>
+        <v>1.035112304410009</v>
       </c>
       <c r="E22">
-        <v>0.9839697383723003</v>
+        <v>1.024641699885134</v>
       </c>
       <c r="F22">
-        <v>1.00469585155988</v>
+        <v>1.044957200549163</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037871742777748</v>
+        <v>1.033899473157228</v>
       </c>
       <c r="J22">
-        <v>1.003990299245676</v>
+        <v>1.030921211884225</v>
       </c>
       <c r="K22">
-        <v>1.017195425904947</v>
+        <v>1.038824857274617</v>
       </c>
       <c r="L22">
-        <v>0.9998655899730041</v>
+        <v>1.028395256891008</v>
       </c>
       <c r="M22">
-        <v>1.0201748531834</v>
+        <v>1.048632030815686</v>
       </c>
       <c r="N22">
-        <v>1.005416080629902</v>
+        <v>1.032385238253416</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9739386129241826</v>
+        <v>1.024366069125235</v>
       </c>
       <c r="D23">
-        <v>1.003131610261474</v>
+        <v>1.035396484514207</v>
       </c>
       <c r="E23">
-        <v>0.9855162220373817</v>
+        <v>1.024951235486427</v>
       </c>
       <c r="F23">
-        <v>1.006423666060256</v>
+        <v>1.0452979128003</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038376409346945</v>
+        <v>1.033967796114437</v>
       </c>
       <c r="J23">
-        <v>1.005177613721896</v>
+        <v>1.03115306684026</v>
       </c>
       <c r="K23">
-        <v>1.018329903940036</v>
+        <v>1.039039603526748</v>
       </c>
       <c r="L23">
-        <v>1.001060563333087</v>
+        <v>1.028634429830455</v>
       </c>
       <c r="M23">
-        <v>1.021559045564831</v>
+        <v>1.048903861666752</v>
       </c>
       <c r="N23">
-        <v>1.006605081228865</v>
+        <v>1.032617422470083</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9815120470576111</v>
+        <v>1.025806883365939</v>
       </c>
       <c r="D24">
-        <v>1.008812329216495</v>
+        <v>1.03651596044032</v>
       </c>
       <c r="E24">
-        <v>0.9914800769309017</v>
+        <v>1.026171783388331</v>
       </c>
       <c r="F24">
-        <v>1.01308097156681</v>
+        <v>1.046640663428943</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040296734632524</v>
+        <v>1.034234096428625</v>
       </c>
       <c r="J24">
-        <v>1.009740830830071</v>
+        <v>1.03206578282391</v>
       </c>
       <c r="K24">
-        <v>1.022686437848792</v>
+        <v>1.03988422232975</v>
       </c>
       <c r="L24">
-        <v>1.005658482410248</v>
+        <v>1.02957650416982</v>
       </c>
       <c r="M24">
-        <v>1.026882199925824</v>
+        <v>1.049974007756868</v>
       </c>
       <c r="N24">
-        <v>1.011174778628742</v>
+        <v>1.03353143461512</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9899516364544918</v>
+        <v>1.02748139449868</v>
       </c>
       <c r="D25">
-        <v>1.01516186125305</v>
+        <v>1.037816420462752</v>
       </c>
       <c r="E25">
-        <v>0.9981619296187527</v>
+        <v>1.027592123471982</v>
       </c>
       <c r="F25">
-        <v>1.020527611668568</v>
+        <v>1.048201696208619</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042394445647996</v>
+        <v>1.034537551581284</v>
       </c>
       <c r="J25">
-        <v>1.014821965604453</v>
+        <v>1.033124750587381</v>
       </c>
       <c r="K25">
-        <v>1.027529281490516</v>
+        <v>1.040862626165019</v>
       </c>
       <c r="L25">
-        <v>1.010788846432644</v>
+        <v>1.030670673186808</v>
       </c>
       <c r="M25">
-        <v>1.032815406402818</v>
+        <v>1.051215753842609</v>
       </c>
       <c r="N25">
-        <v>1.016263129197318</v>
+        <v>1.03459190623428</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_154/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_154/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.028818991024235</v>
+        <v>0.9964282819077915</v>
       </c>
       <c r="D2">
-        <v>1.038854720684631</v>
+        <v>1.020046845808596</v>
       </c>
       <c r="E2">
-        <v>1.028728132802001</v>
+        <v>1.003315982656175</v>
       </c>
       <c r="F2">
-        <v>1.049449016342874</v>
+        <v>1.026261648696335</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034775075012246</v>
+        <v>1.043968513106967</v>
       </c>
       <c r="J2">
-        <v>1.03396919685549</v>
+        <v>1.01871634980209</v>
       </c>
       <c r="K2">
-        <v>1.041641567747759</v>
+        <v>1.031233786011448</v>
       </c>
       <c r="L2">
-        <v>1.03154410633323</v>
+        <v>1.014729313077996</v>
       </c>
       <c r="M2">
-        <v>1.052206044341448</v>
+        <v>1.037366850430532</v>
       </c>
       <c r="N2">
-        <v>1.035437551712949</v>
+        <v>1.020163043867204</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.029791359469192</v>
+        <v>1.000995131302453</v>
       </c>
       <c r="D3">
-        <v>1.039609208576095</v>
+        <v>1.023497093093935</v>
       </c>
       <c r="E3">
-        <v>1.02955478189302</v>
+        <v>1.006964365392454</v>
       </c>
       <c r="F3">
-        <v>1.050355959621095</v>
+        <v>1.030314739777699</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.034944912287693</v>
+        <v>1.045056831495695</v>
       </c>
       <c r="J3">
-        <v>1.034582218340355</v>
+        <v>1.021458704747657</v>
       </c>
       <c r="K3">
-        <v>1.042206301354812</v>
+        <v>1.033837898817867</v>
       </c>
       <c r="L3">
-        <v>1.032178701544021</v>
+        <v>1.017508904703545</v>
       </c>
       <c r="M3">
-        <v>1.052924991341979</v>
+        <v>1.040573891856235</v>
       </c>
       <c r="N3">
-        <v>1.036051443758637</v>
+        <v>1.022909293271349</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.03042107742268</v>
+        <v>1.003890997498721</v>
       </c>
       <c r="D4">
-        <v>1.040097677983197</v>
+        <v>1.025687135832288</v>
       </c>
       <c r="E4">
-        <v>1.030090507587273</v>
+        <v>1.009284030614978</v>
       </c>
       <c r="F4">
-        <v>1.050943396255568</v>
+        <v>1.032888987641708</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.035053590245185</v>
+        <v>1.045736651295218</v>
       </c>
       <c r="J4">
-        <v>1.034978823111656</v>
+        <v>1.023195692158856</v>
       </c>
       <c r="K4">
-        <v>1.042571324050515</v>
+        <v>1.035485117811193</v>
       </c>
       <c r="L4">
-        <v>1.03258950922394</v>
+        <v>1.019271682203011</v>
       </c>
       <c r="M4">
-        <v>1.053390148889461</v>
+        <v>1.042606036974272</v>
       </c>
       <c r="N4">
-        <v>1.036448611754205</v>
+        <v>1.024648747403908</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.030685937019816</v>
+        <v>1.005094756589265</v>
       </c>
       <c r="D5">
-        <v>1.040303092668588</v>
+        <v>1.026597969137384</v>
       </c>
       <c r="E5">
-        <v>1.030315923720591</v>
+        <v>1.010249715096212</v>
       </c>
       <c r="F5">
-        <v>1.051190492928368</v>
+        <v>1.033959995735448</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.035098986304878</v>
+        <v>1.046016728168183</v>
       </c>
       <c r="J5">
-        <v>1.035145540201076</v>
+        <v>1.023917220384473</v>
       </c>
       <c r="K5">
-        <v>1.04272468334303</v>
+        <v>1.036168811498841</v>
       </c>
       <c r="L5">
-        <v>1.032762255385923</v>
+        <v>1.020004451345564</v>
       </c>
       <c r="M5">
-        <v>1.053585688104042</v>
+        <v>1.043450356439778</v>
       </c>
       <c r="N5">
-        <v>1.036615565601015</v>
+        <v>1.025371300282365</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.030730415485802</v>
+        <v>1.005296086112548</v>
       </c>
       <c r="D6">
-        <v>1.040337586302773</v>
+        <v>1.026750332662151</v>
       </c>
       <c r="E6">
-        <v>1.030353783599172</v>
+        <v>1.010411309897902</v>
       </c>
       <c r="F6">
-        <v>1.051231989616284</v>
+        <v>1.034139176173355</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.035106591355522</v>
+        <v>1.046063422321221</v>
       </c>
       <c r="J6">
-        <v>1.035173531794912</v>
+        <v>1.024037865682191</v>
       </c>
       <c r="K6">
-        <v>1.042750427368879</v>
+        <v>1.036283098022041</v>
       </c>
       <c r="L6">
-        <v>1.032791262696676</v>
+        <v>1.020127007228276</v>
       </c>
       <c r="M6">
-        <v>1.053618519199409</v>
+        <v>1.043591543945612</v>
       </c>
       <c r="N6">
-        <v>1.036643596946124</v>
+        <v>1.025492116910244</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.030424615994867</v>
+        <v>1.003907135219325</v>
       </c>
       <c r="D7">
-        <v>1.040100422501798</v>
+        <v>1.025699344772153</v>
       </c>
       <c r="E7">
-        <v>1.03009351883601</v>
+        <v>1.009296971048322</v>
       </c>
       <c r="F7">
-        <v>1.050946697431721</v>
+        <v>1.032903342050694</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.035054197978187</v>
+        <v>1.045740416013181</v>
       </c>
       <c r="J7">
-        <v>1.034981050855848</v>
+        <v>1.023205367087945</v>
       </c>
       <c r="K7">
-        <v>1.042573373624379</v>
+        <v>1.035494287595892</v>
       </c>
       <c r="L7">
-        <v>1.032591817300414</v>
+        <v>1.019281505776001</v>
       </c>
       <c r="M7">
-        <v>1.053392761746715</v>
+        <v>1.042617357687984</v>
       </c>
       <c r="N7">
-        <v>1.036450842662049</v>
+        <v>1.024658436072506</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.029147497129655</v>
+        <v>0.9979842394825019</v>
       </c>
       <c r="D8">
-        <v>1.039109647649846</v>
+        <v>1.021221866023871</v>
       </c>
       <c r="E8">
-        <v>1.029007330424195</v>
+        <v>1.004557682268346</v>
       </c>
       <c r="F8">
-        <v>1.049755400357005</v>
+        <v>1.027641657191941</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.034832724212288</v>
+        <v>1.044341441265062</v>
       </c>
       <c r="J8">
-        <v>1.034176382436153</v>
+        <v>1.019651076690772</v>
       </c>
       <c r="K8">
-        <v>1.041832503839972</v>
+        <v>1.032121846405466</v>
       </c>
       <c r="L8">
-        <v>1.031758532444863</v>
+        <v>1.015676268762615</v>
       </c>
       <c r="M8">
-        <v>1.052449025300794</v>
+        <v>1.038459782671133</v>
       </c>
       <c r="N8">
-        <v>1.035645031520902</v>
+        <v>1.021099098175286</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.026901151196095</v>
+        <v>0.9870698711050728</v>
       </c>
       <c r="D9">
-        <v>1.037365867772706</v>
+        <v>1.012991627573234</v>
       </c>
       <c r="E9">
-        <v>1.02709972925681</v>
+        <v>0.9958760452073372</v>
       </c>
       <c r="F9">
-        <v>1.047660715927088</v>
+        <v>1.017981642123179</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03443315341811</v>
+        <v>1.041683679561598</v>
       </c>
       <c r="J9">
-        <v>1.032758026522456</v>
+        <v>1.013087635858335</v>
       </c>
       <c r="K9">
-        <v>1.040523996342438</v>
+        <v>1.025877383443119</v>
       </c>
       <c r="L9">
-        <v>1.03029161686094</v>
+        <v>1.009036386939983</v>
       </c>
       <c r="M9">
-        <v>1.050785718339987</v>
+        <v>1.030789564097281</v>
       </c>
       <c r="N9">
-        <v>1.034224661379119</v>
+        <v>1.01452633650403</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.025406393149531</v>
+        <v>0.9794366496321343</v>
       </c>
       <c r="D10">
-        <v>1.036204834865305</v>
+        <v>1.007253916933067</v>
       </c>
       <c r="E10">
-        <v>1.025832374822155</v>
+        <v>0.9898427578748159</v>
       </c>
       <c r="F10">
-        <v>1.046267391426837</v>
+        <v>1.011254232688048</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034160547745216</v>
+        <v>1.039773783448979</v>
       </c>
       <c r="J10">
-        <v>1.031812222780532</v>
+        <v>1.008490570741767</v>
       </c>
       <c r="K10">
-        <v>1.039649701748472</v>
+        <v>1.021493423280913</v>
       </c>
       <c r="L10">
-        <v>1.02931469884975</v>
+        <v>1.004397858575097</v>
       </c>
       <c r="M10">
-        <v>1.049676702499338</v>
+        <v>1.025423218696768</v>
       </c>
       <c r="N10">
-        <v>1.033277514487397</v>
+        <v>1.009922743027705</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.024759821756965</v>
+        <v>0.9760379924144141</v>
       </c>
       <c r="D11">
-        <v>1.035702464247003</v>
+        <v>1.004704600243877</v>
       </c>
       <c r="E11">
-        <v>1.025284650880359</v>
+        <v>0.9871664021980763</v>
       </c>
       <c r="F11">
-        <v>1.045664826770767</v>
+        <v>1.008266669273211</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034041036481673</v>
+        <v>1.038911957023401</v>
       </c>
       <c r="J11">
-        <v>1.031402635196652</v>
+        <v>1.006442748673051</v>
       </c>
       <c r="K11">
-        <v>1.039270671167482</v>
+        <v>1.019538336735549</v>
       </c>
       <c r="L11">
-        <v>1.02889193792924</v>
+        <v>1.00233446867583</v>
       </c>
       <c r="M11">
-        <v>1.049196467145894</v>
+        <v>1.023034354208606</v>
       </c>
       <c r="N11">
-        <v>1.032867345242167</v>
+        <v>1.007872012816764</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.024519757549643</v>
+        <v>0.9747607406522187</v>
       </c>
       <c r="D12">
-        <v>1.035515917485351</v>
+        <v>1.003747439607857</v>
       </c>
       <c r="E12">
-        <v>1.025081360649864</v>
+        <v>0.986162166455934</v>
       </c>
       <c r="F12">
-        <v>1.045441122087246</v>
+        <v>1.0071451720965</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033996424140563</v>
+        <v>1.038586412575986</v>
       </c>
       <c r="J12">
-        <v>1.031250489736758</v>
+        <v>1.005673059224088</v>
       </c>
       <c r="K12">
-        <v>1.039129814920136</v>
+        <v>1.018803195040656</v>
       </c>
       <c r="L12">
-        <v>1.02873494435842</v>
+        <v>1.001559367746314</v>
       </c>
       <c r="M12">
-        <v>1.049018083897305</v>
+        <v>1.022136750325384</v>
       </c>
       <c r="N12">
-        <v>1.032714983718269</v>
+        <v>1.007101230320498</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.024571247545881</v>
+        <v>0.9750354005303581</v>
       </c>
       <c r="D13">
-        <v>1.035555929841169</v>
+        <v>1.003953224980308</v>
       </c>
       <c r="E13">
-        <v>1.025124959887058</v>
+        <v>0.9863780449910915</v>
       </c>
       <c r="F13">
-        <v>1.045489102290649</v>
+        <v>1.007386280046102</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03400600361094</v>
+        <v>1.038656491614758</v>
       </c>
       <c r="J13">
-        <v>1.031283125729821</v>
+        <v>1.005838576476342</v>
       </c>
       <c r="K13">
-        <v>1.039160032098133</v>
+        <v>1.018961296530529</v>
       </c>
       <c r="L13">
-        <v>1.028768618247731</v>
+        <v>1.001726028770838</v>
       </c>
       <c r="M13">
-        <v>1.049056347801898</v>
+        <v>1.022329762314446</v>
       </c>
       <c r="N13">
-        <v>1.032747666058184</v>
+        <v>1.007266982626236</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.024739975906072</v>
+        <v>0.9759327219494689</v>
       </c>
       <c r="D14">
-        <v>1.035687043082354</v>
+        <v>1.00462569269187</v>
       </c>
       <c r="E14">
-        <v>1.025267843599227</v>
+        <v>0.9870836012799965</v>
       </c>
       <c r="F14">
-        <v>1.045646332924896</v>
+        <v>1.008174209846057</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034037353307645</v>
+        <v>1.038885159212118</v>
       </c>
       <c r="J14">
-        <v>1.031390058930906</v>
+        <v>1.006379312874902</v>
       </c>
       <c r="K14">
-        <v>1.039259029315655</v>
+        <v>1.019477754394184</v>
       </c>
       <c r="L14">
-        <v>1.028878959997612</v>
+        <v>1.002270577915476</v>
       </c>
       <c r="M14">
-        <v>1.04918172197421</v>
+        <v>1.022960370437779</v>
       </c>
       <c r="N14">
-        <v>1.032854751116681</v>
+        <v>1.007808486932505</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.024843948449007</v>
+        <v>0.9764835999531366</v>
       </c>
       <c r="D15">
-        <v>1.03576783374481</v>
+        <v>1.005038651400362</v>
       </c>
       <c r="E15">
-        <v>1.025355900053663</v>
+        <v>0.9875169609834923</v>
       </c>
       <c r="F15">
-        <v>1.045743223142398</v>
+        <v>1.008658099936031</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034056639682076</v>
+        <v>1.039025324228887</v>
       </c>
       <c r="J15">
-        <v>1.031455943183939</v>
+        <v>1.006711267413205</v>
       </c>
       <c r="K15">
-        <v>1.039320015865211</v>
+        <v>1.019794764614497</v>
       </c>
       <c r="L15">
-        <v>1.028946950342354</v>
+        <v>1.002604931184682</v>
       </c>
       <c r="M15">
-        <v>1.049258968849424</v>
+        <v>1.023347532783598</v>
       </c>
       <c r="N15">
-        <v>1.03292072893291</v>
+        <v>1.008140912884328</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.02544931811455</v>
+        <v>0.9796601717307251</v>
       </c>
       <c r="D16">
-        <v>1.036238183336903</v>
+        <v>1.007421699460701</v>
       </c>
       <c r="E16">
-        <v>1.025868747661474</v>
+        <v>0.9900189890549465</v>
       </c>
       <c r="F16">
-        <v>1.046307397662547</v>
+        <v>1.011450887877451</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034168448359797</v>
+        <v>1.039830230212354</v>
       </c>
       <c r="J16">
-        <v>1.03183940481528</v>
+        <v>1.008625235116097</v>
       </c>
       <c r="K16">
-        <v>1.039674847252094</v>
+        <v>1.021621945512242</v>
       </c>
       <c r="L16">
-        <v>1.029342761469151</v>
+        <v>1.004533607458335</v>
       </c>
       <c r="M16">
-        <v>1.049708573729156</v>
+        <v>1.025580346017385</v>
       </c>
       <c r="N16">
-        <v>1.033304735123752</v>
+        <v>1.010057598640894</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.025829230057925</v>
+        <v>0.9816271899860638</v>
       </c>
       <c r="D17">
-        <v>1.036533319675242</v>
+        <v>1.008898825991524</v>
       </c>
       <c r="E17">
-        <v>1.026190725113365</v>
+        <v>0.99157098213098</v>
       </c>
       <c r="F17">
-        <v>1.046661492281769</v>
+        <v>1.013182371298428</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034238189454726</v>
+        <v>1.040325670958988</v>
       </c>
       <c r="J17">
-        <v>1.032079927839047</v>
+        <v>1.009810188486577</v>
       </c>
       <c r="K17">
-        <v>1.039897302416516</v>
+        <v>1.022752605091306</v>
       </c>
       <c r="L17">
-        <v>1.029591111205075</v>
+        <v>1.005728434499461</v>
       </c>
       <c r="M17">
-        <v>1.049990593349363</v>
+        <v>1.026963147352171</v>
       </c>
       <c r="N17">
-        <v>1.0335455997178</v>
+        <v>1.011244234781076</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.026050890737955</v>
+        <v>0.9827655618050877</v>
       </c>
       <c r="D18">
-        <v>1.036705502768285</v>
+        <v>1.009754186443785</v>
       </c>
       <c r="E18">
-        <v>1.02637863023297</v>
+        <v>0.9924701045141109</v>
       </c>
       <c r="F18">
-        <v>1.046868102344908</v>
+        <v>1.014185164574844</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034278726271874</v>
+        <v>1.040611306275427</v>
       </c>
       <c r="J18">
-        <v>1.032220216128957</v>
+        <v>1.010495857596125</v>
       </c>
       <c r="K18">
-        <v>1.040027012759039</v>
+        <v>1.02340664756953</v>
       </c>
       <c r="L18">
-        <v>1.029735993561158</v>
+        <v>1.006420092059041</v>
       </c>
       <c r="M18">
-        <v>1.050155088210853</v>
+        <v>1.02776345487672</v>
       </c>
       <c r="N18">
-        <v>1.033686087233174</v>
+        <v>1.011930877619406</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.02612648221487</v>
+        <v>0.9831522214488281</v>
       </c>
       <c r="D19">
-        <v>1.036764218659958</v>
+        <v>1.010044801102206</v>
       </c>
       <c r="E19">
-        <v>1.026442718136581</v>
+        <v>0.9927756575887211</v>
       </c>
       <c r="F19">
-        <v>1.046938563320262</v>
+        <v>1.014525895177023</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034292524181013</v>
+        <v>1.040708138436496</v>
       </c>
       <c r="J19">
-        <v>1.03226804998345</v>
+        <v>1.010728733837811</v>
       </c>
       <c r="K19">
-        <v>1.040071233142244</v>
+        <v>1.023628746126218</v>
       </c>
       <c r="L19">
-        <v>1.029785398769178</v>
+        <v>1.006655048736377</v>
       </c>
       <c r="M19">
-        <v>1.050211176262873</v>
+        <v>1.028035291725442</v>
       </c>
       <c r="N19">
-        <v>1.033733989017227</v>
+        <v>1.012164084572067</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.025788462427979</v>
+        <v>0.9814170795966766</v>
       </c>
       <c r="D20">
-        <v>1.036501650703259</v>
+        <v>1.008740991335201</v>
       </c>
       <c r="E20">
-        <v>1.02615616951168</v>
+        <v>0.9914051055340023</v>
       </c>
       <c r="F20">
-        <v>1.046623493754479</v>
+        <v>1.012997343336459</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034230721577703</v>
+        <v>1.040272862379737</v>
       </c>
       <c r="J20">
-        <v>1.032054122476872</v>
+        <v>1.009683625531508</v>
       </c>
       <c r="K20">
-        <v>1.039873439625763</v>
+        <v>1.022631862772783</v>
       </c>
       <c r="L20">
-        <v>1.029564463123264</v>
+        <v>1.005600788387227</v>
       </c>
       <c r="M20">
-        <v>1.049960335554041</v>
+        <v>1.026815436405411</v>
       </c>
       <c r="N20">
-        <v>1.033519757709052</v>
+        <v>1.011117492092093</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.024690286810022</v>
+        <v>0.9756688995329025</v>
       </c>
       <c r="D21">
-        <v>1.035648431942745</v>
+        <v>1.004427954218657</v>
       </c>
       <c r="E21">
-        <v>1.025225763512822</v>
+        <v>0.9868761161790724</v>
       </c>
       <c r="F21">
-        <v>1.04560002924581</v>
+        <v>1.00794251430665</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034028127687236</v>
+        <v>1.038817973627069</v>
       </c>
       <c r="J21">
-        <v>1.031358569937982</v>
+        <v>1.006220332590669</v>
       </c>
       <c r="K21">
-        <v>1.039229878955569</v>
+        <v>1.019325920452446</v>
       </c>
       <c r="L21">
-        <v>1.028846466027712</v>
+        <v>1.002110464521037</v>
       </c>
       <c r="M21">
-        <v>1.049144802463674</v>
+        <v>1.02277495965214</v>
       </c>
       <c r="N21">
-        <v>1.032823217405776</v>
+        <v>1.007649280878033</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.024000406070202</v>
+        <v>0.9719684949486667</v>
       </c>
       <c r="D22">
-        <v>1.035112304410009</v>
+        <v>1.00165671762522</v>
       </c>
       <c r="E22">
-        <v>1.024641699885134</v>
+        <v>0.9839697383723002</v>
       </c>
       <c r="F22">
-        <v>1.044957200549163</v>
+        <v>1.004695851559879</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033899473157228</v>
+        <v>1.037871742777747</v>
       </c>
       <c r="J22">
-        <v>1.030921211884225</v>
+        <v>1.003990299245676</v>
       </c>
       <c r="K22">
-        <v>1.038824857274617</v>
+        <v>1.017195425904946</v>
       </c>
       <c r="L22">
-        <v>1.028395256891008</v>
+        <v>0.9998655899730039</v>
       </c>
       <c r="M22">
-        <v>1.048632030815686</v>
+        <v>1.020174853183399</v>
       </c>
       <c r="N22">
-        <v>1.032385238253416</v>
+        <v>1.005416080629902</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.024366069125235</v>
+        <v>0.9739386129241814</v>
       </c>
       <c r="D23">
-        <v>1.035396484514207</v>
+        <v>1.003131610261473</v>
       </c>
       <c r="E23">
-        <v>1.024951235486427</v>
+        <v>0.9855162220373799</v>
       </c>
       <c r="F23">
-        <v>1.0452979128003</v>
+        <v>1.006423666060255</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033967796114437</v>
+        <v>1.038376409346944</v>
       </c>
       <c r="J23">
-        <v>1.03115306684026</v>
+        <v>1.005177613721895</v>
       </c>
       <c r="K23">
-        <v>1.039039603526748</v>
+        <v>1.018329903940035</v>
       </c>
       <c r="L23">
-        <v>1.028634429830455</v>
+        <v>1.001060563333086</v>
       </c>
       <c r="M23">
-        <v>1.048903861666752</v>
+        <v>1.02155904556483</v>
       </c>
       <c r="N23">
-        <v>1.032617422470083</v>
+        <v>1.006605081228864</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.025806883365939</v>
+        <v>0.9815120470576111</v>
       </c>
       <c r="D24">
-        <v>1.03651596044032</v>
+        <v>1.008812329216495</v>
       </c>
       <c r="E24">
-        <v>1.026171783388331</v>
+        <v>0.9914800769309017</v>
       </c>
       <c r="F24">
-        <v>1.046640663428943</v>
+        <v>1.01308097156681</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034234096428625</v>
+        <v>1.040296734632524</v>
       </c>
       <c r="J24">
-        <v>1.03206578282391</v>
+        <v>1.009740830830071</v>
       </c>
       <c r="K24">
-        <v>1.03988422232975</v>
+        <v>1.022686437848792</v>
       </c>
       <c r="L24">
-        <v>1.02957650416982</v>
+        <v>1.005658482410248</v>
       </c>
       <c r="M24">
-        <v>1.049974007756868</v>
+        <v>1.026882199925824</v>
       </c>
       <c r="N24">
-        <v>1.03353143461512</v>
+        <v>1.011174778628742</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.02748139449868</v>
+        <v>0.9899516364544914</v>
       </c>
       <c r="D25">
-        <v>1.037816420462752</v>
+        <v>1.015161861253049</v>
       </c>
       <c r="E25">
-        <v>1.027592123471982</v>
+        <v>0.9981619296187522</v>
       </c>
       <c r="F25">
-        <v>1.048201696208619</v>
+        <v>1.020527611668567</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034537551581284</v>
+        <v>1.042394445647996</v>
       </c>
       <c r="J25">
-        <v>1.033124750587381</v>
+        <v>1.014821965604453</v>
       </c>
       <c r="K25">
-        <v>1.040862626165019</v>
+        <v>1.027529281490515</v>
       </c>
       <c r="L25">
-        <v>1.030670673186808</v>
+        <v>1.010788846432643</v>
       </c>
       <c r="M25">
-        <v>1.051215753842609</v>
+        <v>1.032815406402818</v>
       </c>
       <c r="N25">
-        <v>1.03459190623428</v>
+        <v>1.016263129197318</v>
       </c>
     </row>
   </sheetData>
